--- a/output/joined_bybundler.xlsx
+++ b/output/joined_bybundler.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1082,37 +1082,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CONEY</t>
+          <t>COHEN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LES</t>
+          <t>STEVE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CONLON</t>
+          <t>CONEY</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KEVIN</t>
+          <t>LES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RYAN, TIMOTHY J.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D38">
@@ -1122,37 +1122,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CONNORS</t>
+          <t>CONLON</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>RYAN, TIMOTHY J.</t>
         </is>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CORZINE</t>
+          <t>CONNORS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JON</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D40">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D41">
@@ -1192,31 +1192,31 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>COSTOS</t>
+          <t>CORZINE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>JON</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D44">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D45">
@@ -1262,7 +1262,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>COSTOS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D48">
@@ -1322,37 +1322,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JUSTIN</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DEWITT</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MEREDITH</t>
+          <t>JUSTIN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D50">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D51">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D52">
@@ -1402,17 +1402,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DRAPER</t>
+          <t>DEWITT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BECKY</t>
+          <t>MEREDITH</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D53">
@@ -1422,17 +1422,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DUNHAM</t>
+          <t>DRAPER</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DOUG</t>
+          <t>BECKY</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D54">
@@ -1442,12 +1442,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECCLES</t>
+          <t>DUNHAM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LENI</t>
+          <t>DOUG</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1462,17 +1462,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EFFRON</t>
+          <t>ECCLES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BLAIR</t>
+          <t>LENI</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D56">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D57">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1572,31 +1572,31 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EMERSON</t>
+          <t>EFFRON</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>BLAIR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D63">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D64">
@@ -1642,21 +1642,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EYCHANER</t>
+          <t>EMERSON</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRED</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D66">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D67">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D68">
@@ -1722,17 +1722,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FALK</t>
+          <t>EYCHANER</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>JOSEPH</t>
+          <t>FRED</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D69">
@@ -1742,12 +1742,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FIDLER</t>
+          <t>FALK</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GENINE</t>
+          <t>JOSEPH</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1756,27 +1756,27 @@
         </is>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FIDLER</t>
+          <t>FARMER</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GENINE</t>
+          <t>ELSPETH</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1787,12 +1787,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JOSH</t>
+          <t>GENINE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D72">
@@ -1802,17 +1802,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>FIDLER</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>GENINE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D73">
@@ -1822,32 +1822,32 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>FIDLER</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>JOSH</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FORRESTER</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CHIP</t>
+          <t>TOM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1856,38 +1856,38 @@
         </is>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FRANK</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>TOM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FREEMAN</t>
+          <t>FORRESTER</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>WILLIAM</t>
+          <t>CHIP</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1896,18 +1896,18 @@
         </is>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FRILLMAN</t>
+          <t>FRANK</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LOU</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1916,23 +1916,23 @@
         </is>
       </c>
       <c r="D78">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>FREEMAN</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>WILLIAM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D79">
@@ -1942,12 +1942,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>FRILLMAN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1956,27 +1956,27 @@
         </is>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>FRILLMAN</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>LOU</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D82">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2032,37 +2032,37 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MOULTON, SETH</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GARRISON</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GILBERT</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2072,147 +2072,147 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GILL</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>MOULTON, SETH</t>
         </is>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GOLDMAN</t>
+          <t>GARRISON</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DOUG</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GOLDMAN</t>
+          <t>GILBERT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LISA</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GOLDMAN</t>
+          <t>GILL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LISA</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GOODMAN</t>
+          <t>GOLDMAN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BARRY</t>
+          <t>DOUG</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HALPERN</t>
+          <t>GOLDMAN</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DANIEL</t>
+          <t>LISA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HAMAMOTO</t>
+          <t>GOLDMAN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PAM</t>
+          <t>LISA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="D93">
@@ -2222,12 +2222,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HARPOOTLIAN</t>
+          <t>GOODMAN</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RICHARD</t>
+          <t>BARRY</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2236,58 +2236,58 @@
         </is>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HARRIS</t>
+          <t>HALPERN</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>DANIEL</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>HAMAMOTO</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>PAM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2296,23 +2296,23 @@
         </is>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>HARPOOTLIAN</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>RICHARD</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D98">
@@ -2322,21 +2322,21 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>HARRIS</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>SCOTT</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D100">
@@ -2372,11 +2372,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D102">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MOULTON, SETH</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D103">
@@ -2432,27 +2432,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HECKLER</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ALEX</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D105">
@@ -2462,12 +2462,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HEINS</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2482,37 +2482,37 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HEYMAN</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BRUCE</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>MOULTON, SETH</t>
         </is>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HEYMAN</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>VICKI</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D108">
@@ -2522,17 +2522,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HICKEY</t>
+          <t>HECKLER</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DOUG</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D109">
@@ -2542,17 +2542,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HOBSON</t>
+          <t>HEINS</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MELLODY</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D110">
@@ -2562,121 +2562,121 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HOBSON</t>
+          <t>HEYMAN</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MELLODY</t>
+          <t>BRUCE</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HOBSON</t>
+          <t>HEYMAN</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MELLODY</t>
+          <t>VICKI</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>JACOBS</t>
+          <t>HICKEY</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>IRWIN</t>
+          <t>DOUG</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>JACOBS</t>
+          <t>HOBSON</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>IRWIN</t>
+          <t>MELLODY</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>JACOBS</t>
+          <t>HOBSON</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>IRWIN</t>
+          <t>MELLODY</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>JACOBS</t>
+          <t>HOBSON</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>JOAN</t>
+          <t>MELLODY</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>JOAN</t>
+          <t>IRWIN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D117">
@@ -2702,101 +2702,101 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>JACOBS</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TONY</t>
+          <t>IRWIN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>JACOBS</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>IRWIN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>JACOBS</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>JOAN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>JACOBS</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>JOAN</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>TONY</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CASTRO, JULIAN</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D123">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D124">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>INSLEE, JAY R.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D125">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MOULTON, SETH</t>
+          <t>CASTRO, JULIAN</t>
         </is>
       </c>
       <c r="D127">
@@ -2912,11 +2912,11 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>INSLEE, JAY R.</t>
         </is>
       </c>
       <c r="D129">
@@ -2942,17 +2942,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>KELLER</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>JANET</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D130">
@@ -2962,17 +2962,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>KELLER</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>JANET</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>MOULTON, SETH</t>
         </is>
       </c>
       <c r="D131">
@@ -2982,37 +2982,37 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>KELLER</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>JANET</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>KEMPNER</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>WARREN, ELIZABETH</t>
         </is>
       </c>
       <c r="D133">
@@ -3022,17 +3022,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>KEMPNER</t>
+          <t>KELLER</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>JANET</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D134">
@@ -3042,17 +3042,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>KENNEY</t>
+          <t>KELLER</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>JANET</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D135">
@@ -3062,17 +3062,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>KIANI</t>
+          <t>KELLER</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MASSI</t>
+          <t>JANET</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D136">
@@ -3082,37 +3082,37 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>KIREKER</t>
+          <t>KEMPNER</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>KRAMER</t>
+          <t>KEMPNER</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ORIN</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D138">
@@ -3122,17 +3122,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>KRAMER</t>
+          <t>KENNEY</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ORIN</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D139">
@@ -3142,17 +3142,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>KRAMER</t>
+          <t>KIANI</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ORIN</t>
+          <t>MASSI</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D140">
@@ -3162,37 +3162,37 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>LASRY</t>
+          <t>KIREKER</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MARC</t>
+          <t>CHARLIE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LASRY</t>
+          <t>KRAMER</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MARC</t>
+          <t>ORIN</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D142">
@@ -3202,17 +3202,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LASRY</t>
+          <t>KRAMER</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MARC</t>
+          <t>ORIN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D143">
@@ -3222,17 +3222,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LASSITER</t>
+          <t>KRAMER</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MAI</t>
+          <t>ORIN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D144">
@@ -3242,97 +3242,97 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>LASRY</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>JILL</t>
+          <t>MARC</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LEVINE</t>
+          <t>LASRY</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CLIFF</t>
+          <t>MARC</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>LEVINE</t>
+          <t>LASRY</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CLIFF</t>
+          <t>MARC</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>LEVINE</t>
+          <t>LASSITER</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SUZI</t>
+          <t>MAI</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>LEVINE</t>
+          <t>LEVI</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SUZI</t>
+          <t>JILL</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D149">
@@ -3342,137 +3342,137 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MADDOX</t>
+          <t>LEVINE</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>KERMAN</t>
+          <t>CLIFF</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MAMET</t>
+          <t>LEVINE</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NOAH</t>
+          <t>CLIFF</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MAMET</t>
+          <t>LEVINE</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NOAH</t>
+          <t>SUZI</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MASON</t>
+          <t>LEVINE</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>LINDA</t>
+          <t>SUZI</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D153">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MASON</t>
+          <t>MADDOX</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LINDA</t>
+          <t>KERMAN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D154">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MASON</t>
+          <t>MAMET</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LINDA</t>
+          <t>NOAH</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MCAULIFFE</t>
+          <t>MAMET</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TERENCE</t>
+          <t>NOAH</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D156">
@@ -3482,12 +3482,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MCFADDEN-LAWSON</t>
+          <t>MASON</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MATTIE</t>
+          <t>LINDA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3496,58 +3496,58 @@
         </is>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MILLER</t>
+          <t>MASON</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>LINDA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MILLER</t>
+          <t>MASON</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>LINDA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>WARREN, ELIZABETH</t>
         </is>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MILLER</t>
+          <t>MCAULIFFE</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>TERENCE</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3556,18 +3556,18 @@
         </is>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>MCFADDEN-LAWSON</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>MATTIE</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3576,23 +3576,23 @@
         </is>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>MCLARTY</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>MARY ALICE</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D162">
@@ -3602,57 +3602,57 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MUNOZ</t>
+          <t>MILLER</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>HENRY</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MURPHY</t>
+          <t>MILLER</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MURPHY</t>
+          <t>MILLER</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>SCOTT</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D165">
@@ -3662,12 +3662,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MYERS</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3682,12 +3682,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MYERS</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3696,23 +3696,23 @@
         </is>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MYERS</t>
+          <t>MUNOZ</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D168">
@@ -3722,12 +3722,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NEWBERGER</t>
+          <t>MURPHY</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TAMAR</t>
+          <t>RYAN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3736,18 +3736,18 @@
         </is>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NEWBERGER</t>
+          <t>MURPHY</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TAMAR</t>
+          <t>RYAN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3756,43 +3756,43 @@
         </is>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NEWBERGER</t>
+          <t>MYERS</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TAMAR</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>NICHOLS</t>
+          <t>MYERS</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D172">
@@ -3802,17 +3802,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>NICHOLS</t>
+          <t>MYERS</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D173">
@@ -3822,97 +3822,97 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>OBLANDER</t>
+          <t>NEWBERGER</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>KRISTIN</t>
+          <t>TAMAR</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>NEWBERGER</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>TAMAR</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>NEWBERGER</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>TAMAR</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>NICHOLS</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>NICHOLS</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D178">
@@ -3922,37 +3922,37 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>OBLANDER</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>KRISTIN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PARHAM</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D180">
@@ -3962,17 +3962,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PARHAM</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D181">
@@ -3982,17 +3982,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PARKER</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>COOKIE</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D182">
@@ -4002,52 +4002,52 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PARKER</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>YOLANDA</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PATTERSON</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CARY</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PAUL</t>
+          <t>PARHAM</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>GARY</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4062,17 +4062,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PENSKY</t>
+          <t>PARHAM</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D186">
@@ -4082,17 +4082,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PENSKY</t>
+          <t>PARKER</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>COOKIE</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D187">
@@ -4102,52 +4102,52 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PENSKY</t>
+          <t>PARKER</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>YOLANDA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PENSKY</t>
+          <t>PATTERSON</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>CARY</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PHILLIPS</t>
+          <t>PAUL</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>GARY</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4162,57 +4162,57 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PHILLIPS</t>
+          <t>PENSKY</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>POHLAD</t>
+          <t>PENSKY</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RAJI</t>
+          <t>PENSKY</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AZITA</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D193">
@@ -4222,157 +4222,157 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RANDLETT</t>
+          <t>PENSKY</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>WADE</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RANDLETT</t>
+          <t>PHILLIPS</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>WADE</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>REEVES</t>
+          <t>PHILLIPS</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BEVERLY</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RICKETTS</t>
+          <t>POHLAD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>LAURA</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>RAJI</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>AZITA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>RANDLETT</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>WADE</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DE BLASIO, BILL</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>RANDLETT</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>WADE</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>REEVES</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>BEVERLY</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D201">
@@ -4382,32 +4382,32 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RUEFF</t>
+          <t>RICKETTS</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RUSTY</t>
+          <t>LAURA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RUEFF</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>RUSTY</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4416,278 +4416,278 @@
         </is>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RUSSELL</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MARGARET</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>DE BLASIO, BILL</t>
         </is>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>RUEFF</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>RUSTY</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>RUEFF</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>RUSTY</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>INSLEE, JAY R.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>RUSSELL</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>MARGARET</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SCHUSTER</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ELAINE</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SEPULVEDA</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>EUGENE</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>CASTRO, JULIAN</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SHERMAN</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>BOB</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SINGH</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>AMY</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>INSLEE, JAY R.</t>
         </is>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>WARREN, ELIZABETH</t>
         </is>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>SCHUSTER</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>ELAINE</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>SEPULVEDA</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>EUGENE</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>CASTRO, JULIAN</t>
         </is>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>SHERMAN</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>BOB</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4702,17 +4702,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>SINGH</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>AMY</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D218">
@@ -4722,72 +4722,72 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4802,17 +4802,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="D223">
@@ -4822,12 +4822,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4842,37 +4842,37 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SOLOW</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D226">
@@ -4882,17 +4882,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>BENNET, MICHAEL F.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D227">
@@ -4902,17 +4902,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D228">
@@ -4922,37 +4922,37 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D230">
@@ -4962,37 +4962,37 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SOLOW</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>STEIN</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>BOBBY</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BENNET, MICHAEL F.</t>
         </is>
       </c>
       <c r="D232">
@@ -5002,12 +5002,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>STETSON</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5016,38 +5016,38 @@
         </is>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>STETSON</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SUSMAN</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SALLY</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5062,17 +5062,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>TANNER</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>JUSTIN</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D236">
@@ -5082,12 +5082,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>TSUNIS</t>
+          <t>STEIN</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>GEORGE</t>
+          <t>BOBBY</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5102,72 +5102,72 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>TSUNIS</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>GEORGE</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>DE BLASIO, BILL</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>WEINSTEIN</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ANDREW</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>WESNER</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ALEXA</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>WESTLY</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>STEVE</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5176,83 +5176,83 @@
         </is>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>WHEELER</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>WILBOURN</t>
+          <t>SUSMAN</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MACK</t>
+          <t>SALLY</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>WILBOURN</t>
+          <t>TANNER</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MACK</t>
+          <t>JUSTIN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>WILBOURN</t>
+          <t>WESTLY</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MACK</t>
+          <t>STEVE</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D245">
@@ -5262,117 +5262,117 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>WINTOUR</t>
+          <t>WHEELER</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ANNA</t>
+          <t>TOM</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>WINTOUR</t>
+          <t>WILBOURN</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ANNA</t>
+          <t>MACK</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>WINTOUR</t>
+          <t>WILBOURN</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ANNA</t>
+          <t>MACK</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>WINTOUR</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>ANNA</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>BIDEN, JOSEPH R. JR.</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>WINTOUR</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>ANNA</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>WINTOUR</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>ANNA</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="D251">
@@ -5392,10 +5392,70 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
+          <t>BIDEN, JOSEPH R. JR.</t>
+        </is>
+      </c>
+      <c r="D252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>WOLF</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>ROBERT</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>HARRIS, KAMALA D.</t>
+        </is>
+      </c>
+      <c r="D253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>WOLF</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ROBERT</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>KLOBUCHAR, AMY J.</t>
+        </is>
+      </c>
+      <c r="D254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>WOLF</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ROBERT</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
           <t>RYAN, TIMOTHY J.</t>
         </is>
       </c>
-      <c r="D252">
+      <c r="D255">
         <v>4</v>
       </c>
     </row>
